--- a/Code/Results/Cases/Case_8_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.456003119447473</v>
+        <v>2.463929957843902</v>
       </c>
       <c r="C2">
-        <v>0.6964989281755436</v>
+        <v>0.7379383636979071</v>
       </c>
       <c r="D2">
-        <v>0.1349881096367511</v>
+        <v>0.1438822858994087</v>
       </c>
       <c r="E2">
-        <v>0.0941918667314674</v>
+        <v>0.09862690954989972</v>
       </c>
       <c r="F2">
-        <v>0.6969891975915488</v>
+        <v>0.6510177753439095</v>
       </c>
       <c r="G2">
-        <v>0.0008071923648233113</v>
+        <v>0.002873047547551966</v>
       </c>
       <c r="H2">
-        <v>0.0005228784302109268</v>
+        <v>0.0001926852092204445</v>
       </c>
       <c r="I2">
-        <v>0.0004721858918719235</v>
+        <v>0.0006288672153154096</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2497306225987703</v>
+        <v>0.2187873534680005</v>
       </c>
       <c r="L2">
-        <v>0.09719355534047835</v>
+        <v>0.1249449877899806</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04926537816476451</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1001372134682335</v>
       </c>
       <c r="O2">
-        <v>0.7170165062367246</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.565926406983721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7284193145214104</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.419607116659023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.14095592109544</v>
+        <v>2.151366596676326</v>
       </c>
       <c r="C3">
-        <v>0.6099900668830287</v>
+        <v>0.6414625648214667</v>
       </c>
       <c r="D3">
-        <v>0.1220971447492758</v>
+        <v>0.1309448302880867</v>
       </c>
       <c r="E3">
-        <v>0.0870386566301633</v>
+        <v>0.09207353083686698</v>
       </c>
       <c r="F3">
-        <v>0.6682574544171018</v>
+        <v>0.6238948767982748</v>
       </c>
       <c r="G3">
-        <v>0.0008104299752654254</v>
+        <v>0.004672527930556891</v>
       </c>
       <c r="H3">
-        <v>0.001396186649571307</v>
+        <v>0.000721954500589983</v>
       </c>
       <c r="I3">
-        <v>0.0007706248497734158</v>
+        <v>0.0005061870875167074</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2583760885773554</v>
+        <v>0.2267177024506832</v>
       </c>
       <c r="L3">
-        <v>0.09117964278208035</v>
+        <v>0.1306603617243525</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05070370331426055</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09505593764795606</v>
       </c>
       <c r="O3">
-        <v>0.6255405133095806</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.52147821128483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6344641174557495</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.376771243211664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947125578138071</v>
+        <v>1.958892580667566</v>
       </c>
       <c r="C4">
-        <v>0.5572188179732791</v>
+        <v>0.5827419481008178</v>
       </c>
       <c r="D4">
-        <v>0.1142288337423381</v>
+        <v>0.1230787761995984</v>
       </c>
       <c r="E4">
-        <v>0.08263940536018666</v>
+        <v>0.08804907968506726</v>
       </c>
       <c r="F4">
-        <v>0.651228541375751</v>
+        <v>0.6075661941520281</v>
       </c>
       <c r="G4">
-        <v>0.0008124877730409218</v>
+        <v>0.006041185551998812</v>
       </c>
       <c r="H4">
-        <v>0.0021701023340015</v>
+        <v>0.001234413815211055</v>
       </c>
       <c r="I4">
-        <v>0.001173288557977603</v>
+        <v>0.0005839773573890206</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2640495718466429</v>
+        <v>0.2318048165686566</v>
       </c>
       <c r="L4">
-        <v>0.08744570511215954</v>
+        <v>0.1343543986441222</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05207472472263852</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09189247378607845</v>
       </c>
       <c r="O4">
-        <v>0.5694358052959387</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.496016936631051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5768322253159255</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.351322857742758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.867858768913521</v>
+        <v>1.88014456258</v>
       </c>
       <c r="C5">
-        <v>0.5368213232106314</v>
+        <v>0.5599467237354645</v>
       </c>
       <c r="D5">
-        <v>0.1111237142250161</v>
+        <v>0.1199809677832704</v>
       </c>
       <c r="E5">
-        <v>0.08084634321708606</v>
+        <v>0.08641084153093104</v>
       </c>
       <c r="F5">
-        <v>0.6437713137668339</v>
+        <v>0.6003616012811861</v>
       </c>
       <c r="G5">
-        <v>0.0008133484604927212</v>
+        <v>0.006665474679068306</v>
       </c>
       <c r="H5">
-        <v>0.002543635975627567</v>
+        <v>0.001488976862815461</v>
       </c>
       <c r="I5">
-        <v>0.001460134352399223</v>
+        <v>0.0007325990069801946</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2661160291742721</v>
+        <v>0.2336311733922241</v>
       </c>
       <c r="L5">
-        <v>0.08587671975236688</v>
+        <v>0.1357382646351706</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05269621996307006</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09055738226177468</v>
       </c>
       <c r="O5">
-        <v>0.5468282276930054</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.484149444284469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5535941036242207</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.339346034511919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854480595676847</v>
+        <v>1.866855598172293</v>
       </c>
       <c r="C6">
-        <v>0.5346999909364456</v>
+        <v>0.5574090525656175</v>
       </c>
       <c r="D6">
-        <v>0.11071982822736</v>
+        <v>0.1195768771809753</v>
       </c>
       <c r="E6">
-        <v>0.08055121297009649</v>
+        <v>0.08614183711738832</v>
       </c>
       <c r="F6">
-        <v>0.6417303561506387</v>
+        <v>0.5984042333673614</v>
       </c>
       <c r="G6">
-        <v>0.0008134977008008581</v>
+        <v>0.006776965541809066</v>
       </c>
       <c r="H6">
-        <v>0.00261060599198315</v>
+        <v>0.001534959837966587</v>
       </c>
       <c r="I6">
-        <v>0.001604449752012904</v>
+        <v>0.0008666992022501319</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2660574675033125</v>
+        <v>0.2335733990453726</v>
       </c>
       <c r="L6">
-        <v>0.0855712418761776</v>
+        <v>0.1357671403467844</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05273498398757681</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09029283656937892</v>
       </c>
       <c r="O6">
-        <v>0.5433749530785192</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.479848556124807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5500260477596797</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.335164070683703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.945483369908061</v>
+        <v>1.95722862700606</v>
       </c>
       <c r="C7">
-        <v>0.5603954280955463</v>
+        <v>0.5839402350929674</v>
       </c>
       <c r="D7">
-        <v>0.114490773736911</v>
+        <v>0.1239839928372533</v>
       </c>
       <c r="E7">
-        <v>0.08262310564602515</v>
+        <v>0.08814302484832126</v>
       </c>
       <c r="F7">
-        <v>0.6489128477837269</v>
+        <v>0.6016764689142846</v>
       </c>
       <c r="G7">
-        <v>0.0008125133045857824</v>
+        <v>0.006349301083835357</v>
       </c>
       <c r="H7">
-        <v>0.002178750176397459</v>
+        <v>0.001246703320813225</v>
       </c>
       <c r="I7">
-        <v>0.001416686459800864</v>
+        <v>0.000862861795346781</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2629686544516332</v>
+        <v>0.2296978931042268</v>
       </c>
       <c r="L7">
-        <v>0.0873040145182209</v>
+        <v>0.1332141024955575</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05162864779328302</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09164686394658972</v>
       </c>
       <c r="O7">
-        <v>0.5699523874554444</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.48942433801416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5772266233523453</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.334306493138996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.346679608598208</v>
+        <v>2.355371508818337</v>
       </c>
       <c r="C8">
-        <v>0.671203085990328</v>
+        <v>0.7027317766279282</v>
       </c>
       <c r="D8">
-        <v>0.1309372390780084</v>
+        <v>0.1419860143518719</v>
       </c>
       <c r="E8">
-        <v>0.09173802931266195</v>
+        <v>0.09674548258689697</v>
       </c>
       <c r="F8">
-        <v>0.6840279526215696</v>
+        <v>0.6266614421280963</v>
       </c>
       <c r="G8">
-        <v>0.0008083114767407102</v>
+        <v>0.005093337745196713</v>
       </c>
       <c r="H8">
-        <v>0.0007756958951751214</v>
+        <v>0.0003471230287130922</v>
       </c>
       <c r="I8">
-        <v>0.0008129224829431791</v>
+        <v>0.0008814580033522645</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2511861804583191</v>
+        <v>0.2165783522366169</v>
       </c>
       <c r="L8">
-        <v>0.09496974168592942</v>
+        <v>0.1244867710925153</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0483420875986722</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09787795090159079</v>
       </c>
       <c r="O8">
-        <v>0.6865538132411473</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.541726243501586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6967690555372457</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.361244100815952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.131927939096784</v>
+        <v>3.133197832233407</v>
       </c>
       <c r="C9">
-        <v>0.8853855076111472</v>
+        <v>0.9407753120043196</v>
       </c>
       <c r="D9">
-        <v>0.1630685292672496</v>
+        <v>0.1750403571114845</v>
       </c>
       <c r="E9">
-        <v>0.1095770281885464</v>
+        <v>0.1132261569834654</v>
       </c>
       <c r="F9">
-        <v>0.7620916993951496</v>
+        <v>0.695572460379509</v>
       </c>
       <c r="G9">
-        <v>0.0008005923555336139</v>
+        <v>0.002340618164239139</v>
       </c>
       <c r="H9">
-        <v>4.461556181345472E-05</v>
+        <v>0.0001489024419112361</v>
       </c>
       <c r="I9">
-        <v>0.001153762901749289</v>
+        <v>0.001800001429294262</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2330917568561972</v>
+        <v>0.1984735557206516</v>
       </c>
       <c r="L9">
-        <v>0.1099242044012811</v>
+        <v>0.1119125375771173</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04714874765752342</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1103842789793958</v>
       </c>
       <c r="O9">
-        <v>0.9144751686688792</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.671416482842631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9307115970246898</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.471188204410879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.714927329729676</v>
+        <v>3.709492783961764</v>
       </c>
       <c r="C10">
-        <v>1.046162197800072</v>
+        <v>1.106463303534554</v>
       </c>
       <c r="D10">
-        <v>0.1831035824527447</v>
+        <v>0.199578126675803</v>
       </c>
       <c r="E10">
-        <v>0.1177495026737247</v>
+        <v>0.1210411253923205</v>
       </c>
       <c r="F10">
-        <v>0.8077163451090001</v>
+        <v>0.7137145033977177</v>
       </c>
       <c r="G10">
-        <v>0.0007953339387200164</v>
+        <v>0.009080942631323197</v>
       </c>
       <c r="H10">
-        <v>0.001045363681282829</v>
+        <v>0.001199728437359493</v>
       </c>
       <c r="I10">
-        <v>0.002845067744631002</v>
+        <v>0.003475084008716323</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2179194267612026</v>
+        <v>0.177962727896821</v>
       </c>
       <c r="L10">
-        <v>0.1150433711264327</v>
+        <v>0.1006668649108953</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0452494723822312</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1132690574609683</v>
       </c>
       <c r="O10">
-        <v>1.070987421118325</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.74524257692201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.090407885189975</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.469846431067168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.042279373136921</v>
+        <v>4.035709405162095</v>
       </c>
       <c r="C11">
-        <v>1.118413681673019</v>
+        <v>1.146362647200988</v>
       </c>
       <c r="D11">
-        <v>0.1588323220781547</v>
+        <v>0.1809796420528329</v>
       </c>
       <c r="E11">
-        <v>0.08430043819414301</v>
+        <v>0.08768844247525465</v>
       </c>
       <c r="F11">
-        <v>0.7051427271395241</v>
+        <v>0.5831338667983772</v>
       </c>
       <c r="G11">
-        <v>0.0007937634554402004</v>
+        <v>0.04286457045807524</v>
       </c>
       <c r="H11">
-        <v>0.01962555508693598</v>
+        <v>0.01968235955683539</v>
       </c>
       <c r="I11">
-        <v>0.004023532537829055</v>
+        <v>0.004580701067912862</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1826431151667833</v>
+        <v>0.1428307826426174</v>
       </c>
       <c r="L11">
-        <v>0.08075441053920152</v>
+        <v>0.08772316132881475</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0330773830979858</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07909597872671625</v>
       </c>
       <c r="O11">
-        <v>1.038193125639893</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.524121116804224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.053902927837377</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.170040983078948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.199078196206585</v>
+        <v>4.193311586531536</v>
       </c>
       <c r="C12">
-        <v>1.13946073784706</v>
+        <v>1.145947281102735</v>
       </c>
       <c r="D12">
-        <v>0.1354896263431726</v>
+        <v>0.1583762050539121</v>
       </c>
       <c r="E12">
-        <v>0.06252280979601821</v>
+        <v>0.065277012580788</v>
       </c>
       <c r="F12">
-        <v>0.617319664333678</v>
+        <v>0.4928523829316092</v>
       </c>
       <c r="G12">
-        <v>0.0007934369861293873</v>
+        <v>0.06721959229922447</v>
       </c>
       <c r="H12">
-        <v>0.05817100136078324</v>
+        <v>0.0581976240901767</v>
       </c>
       <c r="I12">
-        <v>0.004203582086161894</v>
+        <v>0.004697048963266504</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1606466870333865</v>
+        <v>0.1263486460092516</v>
       </c>
       <c r="L12">
-        <v>0.06834482250251567</v>
+        <v>0.0825523240372561</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02634619653504178</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06773865993477224</v>
       </c>
       <c r="O12">
-        <v>0.9765578991839874</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.341177375813544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.98904152236085</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9803788468814645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.231194838577608</v>
+        <v>4.227877048547612</v>
       </c>
       <c r="C13">
-        <v>1.127600783285118</v>
+        <v>1.125002051788272</v>
       </c>
       <c r="D13">
-        <v>0.1121113778558822</v>
+        <v>0.1312202696230287</v>
       </c>
       <c r="E13">
-        <v>0.04845454662537207</v>
+        <v>0.05025494344609616</v>
       </c>
       <c r="F13">
-        <v>0.5323295887081514</v>
+        <v>0.4275943643940465</v>
       </c>
       <c r="G13">
-        <v>0.0007940688720577397</v>
+        <v>0.06134167894558118</v>
       </c>
       <c r="H13">
-        <v>0.1136717096928379</v>
+        <v>0.113714388292621</v>
       </c>
       <c r="I13">
-        <v>0.003913212608212646</v>
+        <v>0.004453224124773669</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.145622699281434</v>
+        <v>0.1199072817442008</v>
       </c>
       <c r="L13">
-        <v>0.07156295617372699</v>
+        <v>0.08091030210289242</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02288889584356735</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07238769984046733</v>
       </c>
       <c r="O13">
-        <v>0.8909665627589689</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.16654782620931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9005554278743233</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8609847656515655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.196877384706625</v>
+        <v>4.195980199950952</v>
       </c>
       <c r="C14">
-        <v>1.105524353018438</v>
+        <v>1.101846877675882</v>
       </c>
       <c r="D14">
-        <v>0.09619827110433476</v>
+        <v>0.1112673314226456</v>
       </c>
       <c r="E14">
-        <v>0.04321513554083112</v>
+        <v>0.04447410261584595</v>
       </c>
       <c r="F14">
-        <v>0.4748020308794807</v>
+        <v>0.3911097674161184</v>
       </c>
       <c r="G14">
-        <v>0.0007949437824348637</v>
+        <v>0.04468158193327199</v>
       </c>
       <c r="H14">
-        <v>0.1628178963906208</v>
+        <v>0.162880772756111</v>
       </c>
       <c r="I14">
-        <v>0.003592028250371193</v>
+        <v>0.004217556237526843</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1384941920457301</v>
+        <v>0.1188410014025374</v>
       </c>
       <c r="L14">
-        <v>0.08302981339318549</v>
+        <v>0.08077875115373723</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02170939284540729</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08475191201335619</v>
       </c>
       <c r="O14">
-        <v>0.8211382157663891</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.048884383325415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8288231252438507</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.802434505371437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.161172262363095</v>
+        <v>4.16119427725522</v>
       </c>
       <c r="C15">
-        <v>1.094633456433598</v>
+        <v>1.092895971415317</v>
       </c>
       <c r="D15">
-        <v>0.09218974564501536</v>
+        <v>0.1057144299780788</v>
       </c>
       <c r="E15">
-        <v>0.0425142128496539</v>
+        <v>0.04371939697952221</v>
       </c>
       <c r="F15">
-        <v>0.4602471174961948</v>
+        <v>0.3848325563745121</v>
       </c>
       <c r="G15">
-        <v>0.0007953775046164912</v>
+        <v>0.0362647946137642</v>
       </c>
       <c r="H15">
-        <v>0.1752432289815999</v>
+        <v>0.1753134536882186</v>
       </c>
       <c r="I15">
-        <v>0.00352842335879977</v>
+        <v>0.004212706373232677</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1376680961144849</v>
+        <v>0.1196424258229918</v>
       </c>
       <c r="L15">
-        <v>0.08683787846573665</v>
+        <v>0.0810382007790369</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02177628052166636</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0887653935058097</v>
       </c>
       <c r="O15">
-        <v>0.7994259825215195</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.019175310909446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8066600280561005</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7961536459036722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.900584123032672</v>
+        <v>3.903520016916161</v>
       </c>
       <c r="C16">
-        <v>1.02976358175917</v>
+        <v>1.046249512809027</v>
       </c>
       <c r="D16">
-        <v>0.08909648069268883</v>
+        <v>0.09765940503363169</v>
       </c>
       <c r="E16">
-        <v>0.0422136293762912</v>
+        <v>0.04393106428759658</v>
       </c>
       <c r="F16">
-        <v>0.4575625024292833</v>
+        <v>0.4099351902603416</v>
       </c>
       <c r="G16">
-        <v>0.0007974995702465284</v>
+        <v>0.008205105496363885</v>
       </c>
       <c r="H16">
-        <v>0.1621302424701696</v>
+        <v>0.1621992478573446</v>
       </c>
       <c r="I16">
-        <v>0.00285402619723385</v>
+        <v>0.003684136148866202</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1460517154043712</v>
+        <v>0.1301583211418587</v>
       </c>
       <c r="L16">
-        <v>0.08374859402859158</v>
+        <v>0.08431602047794806</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02506718570697863</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08595851361433304</v>
       </c>
       <c r="O16">
-        <v>0.752383915346158</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.019692968243007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7596590085814512</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8758045422582512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.71958432061524</v>
+        <v>3.723381157493179</v>
       </c>
       <c r="C17">
-        <v>0.9920316817183732</v>
+        <v>1.019839771591563</v>
       </c>
       <c r="D17">
-        <v>0.0949211953299951</v>
+        <v>0.1020102639431855</v>
       </c>
       <c r="E17">
-        <v>0.04399024282744124</v>
+        <v>0.04610724630461949</v>
       </c>
       <c r="F17">
-        <v>0.4854169519034599</v>
+        <v>0.4468218790640464</v>
       </c>
       <c r="G17">
-        <v>0.0007986694788090461</v>
+        <v>0.002349590830460713</v>
       </c>
       <c r="H17">
-        <v>0.1241901793635236</v>
+        <v>0.1242332734783105</v>
       </c>
       <c r="I17">
-        <v>0.00256441922889028</v>
+        <v>0.003438734699508394</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1561060028035097</v>
+        <v>0.1397466204625371</v>
       </c>
       <c r="L17">
-        <v>0.07380577413147549</v>
+        <v>0.08773341889798525</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02819459290829052</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07606407543905291</v>
       </c>
       <c r="O17">
-        <v>0.7529750428660975</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.081565840359147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.761165824208426</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9635840696009268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.587491877031539</v>
+        <v>3.590633421212317</v>
       </c>
       <c r="C18">
-        <v>0.970049736315616</v>
+        <v>1.009075897436702</v>
       </c>
       <c r="D18">
-        <v>0.1099111818458312</v>
+        <v>0.1171176534853373</v>
       </c>
       <c r="E18">
-        <v>0.05178885033589609</v>
+        <v>0.05418355154538013</v>
       </c>
       <c r="F18">
-        <v>0.5468619457383426</v>
+        <v>0.507569728618428</v>
       </c>
       <c r="G18">
-        <v>0.0007990935603670398</v>
+        <v>0.001025700906958527</v>
       </c>
       <c r="H18">
-        <v>0.07133909842403341</v>
+        <v>0.07137962953798649</v>
       </c>
       <c r="I18">
-        <v>0.002232056119126469</v>
+        <v>0.003070866063462852</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.170679674561633</v>
+        <v>0.1517679487104528</v>
       </c>
       <c r="L18">
-        <v>0.0652150155638509</v>
+        <v>0.09229861584671184</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03239070789175713</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06725005371854742</v>
       </c>
       <c r="O18">
-        <v>0.7945796056946577</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.212473531907008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8048437778911079</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.092356873488853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.503981800463407</v>
+        <v>3.505420853027658</v>
       </c>
       <c r="C19">
-        <v>0.9691002644100593</v>
+        <v>1.020100453884226</v>
       </c>
       <c r="D19">
-        <v>0.1332809864127711</v>
+        <v>0.1415941092470376</v>
       </c>
       <c r="E19">
-        <v>0.06991401396884989</v>
+        <v>0.07251184332015725</v>
       </c>
       <c r="F19">
-        <v>0.6323862448237492</v>
+        <v>0.5862911648621889</v>
       </c>
       <c r="G19">
-        <v>0.0007988481768377779</v>
+        <v>0.0007237235532406849</v>
       </c>
       <c r="H19">
-        <v>0.02619451250195226</v>
+        <v>0.02627520307625275</v>
       </c>
       <c r="I19">
-        <v>0.002388816884644207</v>
+        <v>0.003255020357776139</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1889569124576607</v>
+        <v>0.1658075270736195</v>
       </c>
       <c r="L19">
-        <v>0.07072108810529887</v>
+        <v>0.09766893457662462</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03757819996044276</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07213244011112607</v>
       </c>
       <c r="O19">
-        <v>0.8691034193098446</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.389146303681912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8823702260490691</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.249615800615103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.560269177231532</v>
+        <v>3.556980558298676</v>
       </c>
       <c r="C20">
-        <v>1.014850934756879</v>
+        <v>1.080916217289712</v>
       </c>
       <c r="D20">
-        <v>0.1786107382944806</v>
+        <v>0.1914461817948876</v>
       </c>
       <c r="E20">
-        <v>0.1154197089056943</v>
+        <v>0.1183982678572271</v>
       </c>
       <c r="F20">
-        <v>0.7880740471136818</v>
+        <v>0.714883344262411</v>
       </c>
       <c r="G20">
-        <v>0.0007967323449436476</v>
+        <v>0.002489539351211434</v>
       </c>
       <c r="H20">
-        <v>0.0006597860890988905</v>
+        <v>0.0008396613172787504</v>
       </c>
       <c r="I20">
-        <v>0.003027846401229439</v>
+        <v>0.003876910689887048</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2183591612448801</v>
+        <v>0.1839693396890194</v>
       </c>
       <c r="L20">
-        <v>0.1130985770129556</v>
+        <v>0.1037284323923124</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04595084188647824</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1123073045301481</v>
       </c>
       <c r="O20">
-        <v>1.031945462264105</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.704155193585734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.050799617275956</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.488070711101102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.997165320691408</v>
+        <v>3.986883760111709</v>
       </c>
       <c r="C21">
-        <v>1.138146389748897</v>
+        <v>1.17240656823617</v>
       </c>
       <c r="D21">
-        <v>0.2002091461000219</v>
+        <v>0.2305280977198976</v>
       </c>
       <c r="E21">
-        <v>0.1294251383761491</v>
+        <v>0.1345641774806197</v>
       </c>
       <c r="F21">
-        <v>0.8482132796898583</v>
+        <v>0.684210470892495</v>
       </c>
       <c r="G21">
-        <v>0.0007926382824429805</v>
+        <v>0.06399427652155509</v>
       </c>
       <c r="H21">
-        <v>0.001789548192470569</v>
+        <v>0.001789788895963818</v>
       </c>
       <c r="I21">
-        <v>0.004699951796342638</v>
+        <v>0.005178715485045338</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2135250062327856</v>
+        <v>0.1566586423454641</v>
       </c>
       <c r="L21">
-        <v>0.1258784926338805</v>
+        <v>0.09196133825723773</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03962343053175843</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1211480044939215</v>
       </c>
       <c r="O21">
-        <v>1.170724717169577</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.814813807262226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.190777484164386</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.343505961982288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.287248248054311</v>
+        <v>4.272284014127536</v>
       </c>
       <c r="C22">
-        <v>1.214307515477799</v>
+        <v>1.223778707255519</v>
       </c>
       <c r="D22">
-        <v>0.2119366231268174</v>
+        <v>0.2554389040107026</v>
       </c>
       <c r="E22">
-        <v>0.1360500106963265</v>
+        <v>0.1429584323112181</v>
       </c>
       <c r="F22">
-        <v>0.8839085643613345</v>
+        <v>0.656868376472687</v>
       </c>
       <c r="G22">
-        <v>0.0007900494792077783</v>
+        <v>0.1533530850271561</v>
       </c>
       <c r="H22">
-        <v>0.002900751723355799</v>
+        <v>0.002668961798502512</v>
       </c>
       <c r="I22">
-        <v>0.005805630095444769</v>
+        <v>0.005842920585487299</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2104236732035005</v>
+        <v>0.1394178913535242</v>
       </c>
       <c r="L22">
-        <v>0.1314816489014206</v>
+        <v>0.08540779890140371</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03525275502399161</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1241877073529842</v>
       </c>
       <c r="O22">
-        <v>1.254415404294704</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.88292765090327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.274781633637289</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.237809281170541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.133116210419757</v>
+        <v>4.12071346140624</v>
       </c>
       <c r="C23">
-        <v>1.169366599118462</v>
+        <v>1.197461412668702</v>
       </c>
       <c r="D23">
-        <v>0.2053011004850731</v>
+        <v>0.2396992709493873</v>
       </c>
       <c r="E23">
-        <v>0.132498263819798</v>
+        <v>0.138091277592892</v>
       </c>
       <c r="F23">
-        <v>0.8673482318508405</v>
+        <v>0.6823920762575284</v>
       </c>
       <c r="G23">
-        <v>0.0007914145914587018</v>
+        <v>0.08736490690385779</v>
       </c>
       <c r="H23">
-        <v>0.002279777228217372</v>
+        <v>0.002194192985937482</v>
       </c>
       <c r="I23">
-        <v>0.004909953741218942</v>
+        <v>0.00515174479218139</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2132594890982134</v>
+        <v>0.1512213481241673</v>
       </c>
       <c r="L23">
-        <v>0.1286299037733087</v>
+        <v>0.0895945728884362</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03883025500103621</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1229338370721855</v>
       </c>
       <c r="O23">
-        <v>1.208725694172784</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.853766165285464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.229231915218463</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.324034620358702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.548663867016046</v>
+        <v>3.545196839217454</v>
       </c>
       <c r="C24">
-        <v>1.007028711224933</v>
+        <v>1.074543347596375</v>
       </c>
       <c r="D24">
-        <v>0.1809220644286853</v>
+        <v>0.1938208096384813</v>
       </c>
       <c r="E24">
-        <v>0.119121475448928</v>
+        <v>0.1221171706783188</v>
       </c>
       <c r="F24">
-        <v>0.8024445423845492</v>
+        <v>0.7284701925276096</v>
       </c>
       <c r="G24">
-        <v>0.0007967064467147831</v>
+        <v>0.002307449103084558</v>
       </c>
       <c r="H24">
-        <v>0.0005801538342977697</v>
+        <v>0.0007660133521696366</v>
       </c>
       <c r="I24">
-        <v>0.002570062426213049</v>
+        <v>0.003324145267094458</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2230517249868491</v>
+        <v>0.1877563758017811</v>
       </c>
       <c r="L24">
-        <v>0.1176070218428009</v>
+        <v>0.1051471322120676</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04737253458530155</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1167007906044155</v>
       </c>
       <c r="O24">
-        <v>1.037807297088307</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.737136661212247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.057056758195699</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.518611734869353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.918612213375809</v>
+        <v>2.92219866177561</v>
       </c>
       <c r="C25">
-        <v>0.8334296432466317</v>
+        <v>0.8849953743087724</v>
       </c>
       <c r="D25">
-        <v>0.1548793440824738</v>
+        <v>0.165621094818249</v>
       </c>
       <c r="E25">
-        <v>0.1047653963170312</v>
+        <v>0.1086197036751422</v>
       </c>
       <c r="F25">
-        <v>0.7363787022973654</v>
+        <v>0.6781159427924237</v>
       </c>
       <c r="G25">
-        <v>0.0008026452380567635</v>
+        <v>0.001852837857774237</v>
       </c>
       <c r="H25">
-        <v>6.100933230390737E-06</v>
+        <v>1.729301504727054E-05</v>
       </c>
       <c r="I25">
-        <v>0.001241508053642981</v>
+        <v>0.001883115315346906</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2357012793025781</v>
+        <v>0.2030378840311542</v>
       </c>
       <c r="L25">
-        <v>0.105690011176673</v>
+        <v>0.1151062198163508</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04699849259843702</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1069848956733779</v>
       </c>
       <c r="O25">
-        <v>0.8542047886198176</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.622973979796598</v>
+        <v>0.8689189444496321</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.445166824732325</v>
       </c>
     </row>
   </sheetData>
